--- a/data/pca/factorExposure/factorExposure_2016-12-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01320051518664509</v>
+        <v>-0.01343701376340516</v>
       </c>
       <c r="C2">
-        <v>-0.0441336735015498</v>
+        <v>0.04204057225970422</v>
       </c>
       <c r="D2">
-        <v>0.01118840631430874</v>
+        <v>0.06081915611455718</v>
       </c>
       <c r="E2">
-        <v>0.05804085085494438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.008268045853317902</v>
+      </c>
+      <c r="F2">
+        <v>-0.08741679067920387</v>
+      </c>
+      <c r="G2">
+        <v>0.06137551683276057</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0590999610016754</v>
+        <v>-0.0364056675316167</v>
       </c>
       <c r="C3">
-        <v>-0.1031265745729541</v>
+        <v>0.08910302248322513</v>
       </c>
       <c r="D3">
-        <v>0.03330099542057392</v>
+        <v>0.102188456665924</v>
       </c>
       <c r="E3">
-        <v>0.02303191891214117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.02690301261792238</v>
+      </c>
+      <c r="F3">
+        <v>-0.0499302937242423</v>
+      </c>
+      <c r="G3">
+        <v>0.09881657153828069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06222113414020589</v>
+        <v>-0.05581616866455501</v>
       </c>
       <c r="C4">
-        <v>-0.06374916848562533</v>
+        <v>0.06045902461081194</v>
       </c>
       <c r="D4">
-        <v>-0.001439922421674929</v>
+        <v>0.05683709085400202</v>
       </c>
       <c r="E4">
-        <v>0.01992243117257125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.003925128193575372</v>
+      </c>
+      <c r="F4">
+        <v>-0.05173063296843319</v>
+      </c>
+      <c r="G4">
+        <v>0.08483803592892301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02653940461995026</v>
+        <v>-0.03489616908921053</v>
       </c>
       <c r="C6">
-        <v>-0.05336635630123288</v>
+        <v>0.03873292629286763</v>
       </c>
       <c r="D6">
-        <v>0.005515278768768455</v>
+        <v>0.06420926991920431</v>
       </c>
       <c r="E6">
-        <v>0.01041899176946687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01125814507136692</v>
+      </c>
+      <c r="F6">
+        <v>-0.04075498622961224</v>
+      </c>
+      <c r="G6">
+        <v>0.08070756667662268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01883059056861099</v>
+        <v>-0.02065518636855467</v>
       </c>
       <c r="C7">
-        <v>-0.0448269121764128</v>
+        <v>0.03581295435028613</v>
       </c>
       <c r="D7">
-        <v>-0.01449939347316638</v>
+        <v>0.0320471404814106</v>
       </c>
       <c r="E7">
-        <v>0.01481588089154018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004933310766713775</v>
+      </c>
+      <c r="F7">
+        <v>-0.06401488604073331</v>
+      </c>
+      <c r="G7">
+        <v>0.1049625334903827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0007931410721732067</v>
+        <v>-0.005282217257449143</v>
       </c>
       <c r="C8">
-        <v>-0.008122549404064221</v>
+        <v>0.01876410717399935</v>
       </c>
       <c r="D8">
-        <v>0.01392798855642486</v>
+        <v>0.03703309595846122</v>
       </c>
       <c r="E8">
-        <v>0.01049101087950712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.004448753354417402</v>
+      </c>
+      <c r="F8">
+        <v>-0.02801665982968686</v>
+      </c>
+      <c r="G8">
+        <v>0.06183903391142868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02734827729582392</v>
+        <v>-0.03469938520089456</v>
       </c>
       <c r="C9">
-        <v>-0.04265095499402448</v>
+        <v>0.04608223123814423</v>
       </c>
       <c r="D9">
-        <v>-0.007909563485068149</v>
+        <v>0.04085460323469679</v>
       </c>
       <c r="E9">
-        <v>0.01569298716358684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.001093944266325778</v>
+      </c>
+      <c r="F9">
+        <v>-0.0526104182187911</v>
+      </c>
+      <c r="G9">
+        <v>0.08746544175447937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07555739708179546</v>
+        <v>-0.09207284478321104</v>
       </c>
       <c r="C10">
-        <v>0.1994931645706103</v>
+        <v>-0.1960872918482929</v>
       </c>
       <c r="D10">
-        <v>0.01225543723529648</v>
+        <v>0.01454689782422735</v>
       </c>
       <c r="E10">
-        <v>0.01560403514837651</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02719806201665823</v>
+      </c>
+      <c r="F10">
+        <v>-0.02923838276815762</v>
+      </c>
+      <c r="G10">
+        <v>0.04293185608251627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03924243764661935</v>
+        <v>-0.03646480572580905</v>
       </c>
       <c r="C11">
-        <v>-0.05217967201271806</v>
+        <v>0.05072714323029957</v>
       </c>
       <c r="D11">
-        <v>-0.006308633107625132</v>
+        <v>0.02887117378683047</v>
       </c>
       <c r="E11">
-        <v>0.003450101795329322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01600208217336371</v>
+      </c>
+      <c r="F11">
+        <v>-0.02712324045926069</v>
+      </c>
+      <c r="G11">
+        <v>0.06891281688699107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03462716486530623</v>
+        <v>-0.03687875792743141</v>
       </c>
       <c r="C12">
-        <v>-0.04342340121790887</v>
+        <v>0.04655568249094334</v>
       </c>
       <c r="D12">
-        <v>-0.008858322301890672</v>
+        <v>0.0198338057722508</v>
       </c>
       <c r="E12">
-        <v>0.002828813570303212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.006367567730299657</v>
+      </c>
+      <c r="F12">
+        <v>-0.03046502265312388</v>
+      </c>
+      <c r="G12">
+        <v>0.06824203993535842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.006312456350492912</v>
+        <v>-0.01040546791494363</v>
       </c>
       <c r="C13">
-        <v>-0.03813789417867371</v>
+        <v>0.03713547951746757</v>
       </c>
       <c r="D13">
-        <v>0.01056228530216475</v>
+        <v>0.06866007940241829</v>
       </c>
       <c r="E13">
-        <v>0.03246408333254736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01590304286724024</v>
+      </c>
+      <c r="F13">
+        <v>-0.07665075705131344</v>
+      </c>
+      <c r="G13">
+        <v>0.110829131333929</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006732923162767059</v>
+        <v>-0.008525304701038494</v>
       </c>
       <c r="C14">
-        <v>-0.02763426437841266</v>
+        <v>0.02764560333907616</v>
       </c>
       <c r="D14">
-        <v>-0.01408275332830096</v>
+        <v>0.02593690462338439</v>
       </c>
       <c r="E14">
-        <v>0.01314191823166965</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.002887960839952143</v>
+      </c>
+      <c r="F14">
+        <v>-0.060923047589097</v>
+      </c>
+      <c r="G14">
+        <v>0.09654915904319521</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03383657764740883</v>
+        <v>-0.03513344749949637</v>
       </c>
       <c r="C16">
-        <v>-0.03895145173699643</v>
+        <v>0.04394957214904289</v>
       </c>
       <c r="D16">
-        <v>-0.003028558649472181</v>
+        <v>0.02508247445594632</v>
       </c>
       <c r="E16">
-        <v>0.003253158837569409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.001073120737029569</v>
+      </c>
+      <c r="F16">
+        <v>-0.03311585010620155</v>
+      </c>
+      <c r="G16">
+        <v>0.07308663512520268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03133674244220543</v>
+        <v>-0.01802042870345343</v>
       </c>
       <c r="C19">
-        <v>-0.05552793289528887</v>
+        <v>0.04662968375460311</v>
       </c>
       <c r="D19">
-        <v>0.03120495339700198</v>
+        <v>0.1039437036233736</v>
       </c>
       <c r="E19">
-        <v>0.03196238839211019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01731499613517507</v>
+      </c>
+      <c r="F19">
+        <v>-0.07070370165732219</v>
+      </c>
+      <c r="G19">
+        <v>0.1095314081907803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01279538825046692</v>
+        <v>-0.01599537062988638</v>
       </c>
       <c r="C20">
-        <v>-0.04333860122948474</v>
+        <v>0.03675552443192173</v>
       </c>
       <c r="D20">
-        <v>0.01734753389717434</v>
+        <v>0.04969625543272451</v>
       </c>
       <c r="E20">
-        <v>0.02406762659433681</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02683572483337177</v>
+      </c>
+      <c r="F20">
+        <v>-0.06070760598031604</v>
+      </c>
+      <c r="G20">
+        <v>0.0883883602178538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.005994200334714552</v>
+        <v>-0.007403507914157104</v>
       </c>
       <c r="C21">
-        <v>-0.03516332191895411</v>
+        <v>0.03499837966174913</v>
       </c>
       <c r="D21">
-        <v>0.02165742849231268</v>
+        <v>0.07022139506973232</v>
       </c>
       <c r="E21">
-        <v>0.03993284540455332</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.01567464963444531</v>
+      </c>
+      <c r="F21">
+        <v>-0.08812858583461264</v>
+      </c>
+      <c r="G21">
+        <v>0.1212642776845874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.002621282687869927</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01353366625284095</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0250510187846447</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.001714532399337477</v>
+      </c>
+      <c r="F22">
+        <v>-0.002508503189434359</v>
+      </c>
+      <c r="G22">
+        <v>0.01630982140326112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.002641934500367456</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.01348194522121375</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.02484267821441479</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.001390707435952001</v>
+      </c>
+      <c r="F23">
+        <v>-0.002493436583580557</v>
+      </c>
+      <c r="G23">
+        <v>0.01611930947555953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02754514748542302</v>
+        <v>-0.03105574378429652</v>
       </c>
       <c r="C24">
-        <v>-0.04629107285226985</v>
+        <v>0.04957263071871783</v>
       </c>
       <c r="D24">
-        <v>-0.01176928003134362</v>
+        <v>0.02445507079758975</v>
       </c>
       <c r="E24">
-        <v>0.01030061302220529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.008951784325722833</v>
+      </c>
+      <c r="F24">
+        <v>-0.03967173211367953</v>
+      </c>
+      <c r="G24">
+        <v>0.06989062270926166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04505359028164848</v>
+        <v>-0.04318271907084297</v>
       </c>
       <c r="C25">
-        <v>-0.05339440058572662</v>
+        <v>0.05602259202423102</v>
       </c>
       <c r="D25">
-        <v>-0.02266267518215806</v>
+        <v>0.01808475788672919</v>
       </c>
       <c r="E25">
-        <v>0.007691825607081589</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.008838055305316134</v>
+      </c>
+      <c r="F25">
+        <v>-0.04278431128547185</v>
+      </c>
+      <c r="G25">
+        <v>0.08033293402540956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.008292287007311995</v>
+        <v>-0.01465104649458135</v>
       </c>
       <c r="C26">
-        <v>-0.01027315012028013</v>
+        <v>0.01082726798602635</v>
       </c>
       <c r="D26">
-        <v>-0.005472341616807102</v>
+        <v>0.02196409266935441</v>
       </c>
       <c r="E26">
-        <v>0.03459333481263852</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.001834846608933834</v>
+      </c>
+      <c r="F26">
+        <v>-0.0650166807869454</v>
+      </c>
+      <c r="G26">
+        <v>0.05984308846828248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09145585264721312</v>
+        <v>-0.1231759809532271</v>
       </c>
       <c r="C28">
-        <v>0.2276104929360104</v>
+        <v>-0.2467923764513506</v>
       </c>
       <c r="D28">
-        <v>0.004053131444652126</v>
+        <v>-0.001896963257904194</v>
       </c>
       <c r="E28">
-        <v>0.02096519149068058</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.02856149223318575</v>
+      </c>
+      <c r="F28">
+        <v>-0.03842190470137882</v>
+      </c>
+      <c r="G28">
+        <v>0.04334437307041301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01144256910179046</v>
+        <v>-0.007853893568082812</v>
       </c>
       <c r="C29">
-        <v>-0.020070502334161</v>
+        <v>0.02304112851644425</v>
       </c>
       <c r="D29">
-        <v>-0.01316950340288497</v>
+        <v>0.01653184659763534</v>
       </c>
       <c r="E29">
-        <v>0.005890569226429114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.00706462821629979</v>
+      </c>
+      <c r="F29">
+        <v>-0.05103887901803603</v>
+      </c>
+      <c r="G29">
+        <v>0.09170508491925135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03816228089854891</v>
+        <v>-0.03899547750210834</v>
       </c>
       <c r="C30">
-        <v>-0.07320965082657603</v>
+        <v>0.06435324875710165</v>
       </c>
       <c r="D30">
-        <v>-0.00744108682936678</v>
+        <v>0.09092379758827891</v>
       </c>
       <c r="E30">
-        <v>0.03779385854121561</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02195770837869764</v>
+      </c>
+      <c r="F30">
+        <v>-0.07099160583872563</v>
+      </c>
+      <c r="G30">
+        <v>0.09196936548388987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04445118979606881</v>
+        <v>-0.05632716285125927</v>
       </c>
       <c r="C31">
-        <v>-0.02622174794993311</v>
+        <v>0.0418207154283667</v>
       </c>
       <c r="D31">
-        <v>-0.01962849584476216</v>
+        <v>0.003458304714794871</v>
       </c>
       <c r="E31">
-        <v>0.01770174775451537</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02879220391057255</v>
+      </c>
+      <c r="F31">
+        <v>-0.0611383790043975</v>
+      </c>
+      <c r="G31">
+        <v>0.07865917248982678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.008030839397073193</v>
+        <v>-0.002551218043867693</v>
       </c>
       <c r="C32">
-        <v>-0.03585187313120135</v>
+        <v>0.02372592604388562</v>
       </c>
       <c r="D32">
-        <v>0.02058389934997471</v>
+        <v>0.04636248596845398</v>
       </c>
       <c r="E32">
-        <v>0.007664127532295606</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01207597588803218</v>
+      </c>
+      <c r="F32">
+        <v>-0.02661629785822494</v>
+      </c>
+      <c r="G32">
+        <v>0.07139321843920814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02824007738002945</v>
+        <v>-0.02630519389678602</v>
       </c>
       <c r="C33">
-        <v>-0.05573348317880954</v>
+        <v>0.04673582760686232</v>
       </c>
       <c r="D33">
-        <v>0.00296025640284417</v>
+        <v>0.07453792758962309</v>
       </c>
       <c r="E33">
-        <v>0.02961703032128973</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.001824561856324654</v>
+      </c>
+      <c r="F33">
+        <v>-0.07839095807122384</v>
+      </c>
+      <c r="G33">
+        <v>0.1348089752988614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05291503949470362</v>
+        <v>-0.0426113999758592</v>
       </c>
       <c r="C34">
-        <v>-0.05045970916616966</v>
+        <v>0.06072162120702144</v>
       </c>
       <c r="D34">
-        <v>-0.01368191470984946</v>
+        <v>0.02254435287311684</v>
       </c>
       <c r="E34">
-        <v>-0.005215558775503977</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02173498852636559</v>
+      </c>
+      <c r="F34">
+        <v>-0.02203075404957671</v>
+      </c>
+      <c r="G34">
+        <v>0.07652458257130441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.008307601141276068</v>
+        <v>-0.01495441784666014</v>
       </c>
       <c r="C36">
-        <v>-0.004888369705175514</v>
+        <v>0.006557503081271699</v>
       </c>
       <c r="D36">
-        <v>-0.008365014865828798</v>
+        <v>0.02404392620521679</v>
       </c>
       <c r="E36">
-        <v>0.01457327028598815</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.00729318481570587</v>
+      </c>
+      <c r="F36">
+        <v>-0.05385170272357554</v>
+      </c>
+      <c r="G36">
+        <v>0.08208218586683748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03649192556352154</v>
+        <v>-0.03136342117637392</v>
       </c>
       <c r="C38">
-        <v>-0.01915102405883435</v>
+        <v>0.02291357060532329</v>
       </c>
       <c r="D38">
-        <v>-0.01160217507718737</v>
+        <v>0.02177922151621179</v>
       </c>
       <c r="E38">
-        <v>0.005684123921430096</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01220495726737418</v>
+      </c>
+      <c r="F38">
+        <v>-0.04124982816503069</v>
+      </c>
+      <c r="G38">
+        <v>0.08322953400536602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0365588010142948</v>
+        <v>-0.03744952025833885</v>
       </c>
       <c r="C39">
-        <v>-0.0838963791042092</v>
+        <v>0.07491091543042662</v>
       </c>
       <c r="D39">
-        <v>0.002874529623669138</v>
+        <v>0.04640374634689594</v>
       </c>
       <c r="E39">
-        <v>0.0101007591060315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01763789301580354</v>
+      </c>
+      <c r="F39">
+        <v>-0.03993236880108157</v>
+      </c>
+      <c r="G39">
+        <v>0.07749233500181206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0154589663295301</v>
+        <v>-0.0164265013339514</v>
       </c>
       <c r="C40">
-        <v>-0.02708645797825157</v>
+        <v>0.03613725039006175</v>
       </c>
       <c r="D40">
-        <v>0.0129284202948657</v>
+        <v>0.03735991095794015</v>
       </c>
       <c r="E40">
-        <v>0.02060122957152823</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02636543210873375</v>
+      </c>
+      <c r="F40">
+        <v>-0.06326189165528552</v>
+      </c>
+      <c r="G40">
+        <v>0.1053708371761326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01042756231472472</v>
+        <v>-0.01821517489678945</v>
       </c>
       <c r="C41">
-        <v>0.001184511230288835</v>
+        <v>-0.001599637845850378</v>
       </c>
       <c r="D41">
-        <v>-0.01049919977026762</v>
+        <v>0.01930651893805569</v>
       </c>
       <c r="E41">
-        <v>0.01122327305782756</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01193679973565388</v>
+      </c>
+      <c r="F41">
+        <v>-0.04841631660875338</v>
+      </c>
+      <c r="G41">
+        <v>0.07474140582853363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.00439251702408029</v>
+        <v>-0.00351478985543936</v>
       </c>
       <c r="C42">
-        <v>-0.05045934491373888</v>
+        <v>0.02710103520226752</v>
       </c>
       <c r="D42">
-        <v>-0.01073789252789134</v>
+        <v>0.004131373470665387</v>
       </c>
       <c r="E42">
-        <v>0.1345253870240844</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.01497708714449414</v>
+      </c>
+      <c r="F42">
+        <v>-0.1168323206270997</v>
+      </c>
+      <c r="G42">
+        <v>-0.1037510536152762</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02971550395919055</v>
+        <v>-0.0327240549385376</v>
       </c>
       <c r="C43">
-        <v>-0.008495162208951934</v>
+        <v>0.01158958840392594</v>
       </c>
       <c r="D43">
-        <v>-0.009466629078135436</v>
+        <v>0.03795079497077777</v>
       </c>
       <c r="E43">
-        <v>0.008879311293317659</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.00944324003006629</v>
+      </c>
+      <c r="F43">
+        <v>-0.05421686766723954</v>
+      </c>
+      <c r="G43">
+        <v>0.1041047240120526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02110541405031766</v>
+        <v>-0.01475033095292812</v>
       </c>
       <c r="C44">
-        <v>-0.05422414484492072</v>
+        <v>0.05160429317876615</v>
       </c>
       <c r="D44">
-        <v>0.004117732548166829</v>
+        <v>0.04370378468184099</v>
       </c>
       <c r="E44">
-        <v>0.01594818067742224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01802004739814009</v>
+      </c>
+      <c r="F44">
+        <v>-0.05742587990965713</v>
+      </c>
+      <c r="G44">
+        <v>0.1022085037064623</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0008985643924032758</v>
+        <v>-0.009968521779812023</v>
       </c>
       <c r="C46">
-        <v>-0.01196421161291241</v>
+        <v>0.01775467350799034</v>
       </c>
       <c r="D46">
-        <v>-0.0266051941443449</v>
+        <v>0.009828998861988705</v>
       </c>
       <c r="E46">
-        <v>0.01197492843256993</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.01166485390143585</v>
+      </c>
+      <c r="F46">
+        <v>-0.06478294655356548</v>
+      </c>
+      <c r="G46">
+        <v>0.093839226177569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07554870175839293</v>
+        <v>-0.08593095950645564</v>
       </c>
       <c r="C47">
-        <v>-0.06352254323869461</v>
+        <v>0.07171358131515122</v>
       </c>
       <c r="D47">
-        <v>-0.01214116080821073</v>
+        <v>-0.006613674000172179</v>
       </c>
       <c r="E47">
-        <v>0.001320617752817853</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.03866810383165841</v>
+      </c>
+      <c r="F47">
+        <v>-0.04312817624236173</v>
+      </c>
+      <c r="G47">
+        <v>0.08285336101100454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01712714331465686</v>
+        <v>-0.01703243340414124</v>
       </c>
       <c r="C48">
-        <v>-0.007314497280791625</v>
+        <v>0.01268525538108156</v>
       </c>
       <c r="D48">
-        <v>-0.009344630654101427</v>
+        <v>0.01675907132798649</v>
       </c>
       <c r="E48">
-        <v>-0.001403761655543131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.01868359595862388</v>
+      </c>
+      <c r="F48">
+        <v>-0.04578082941888854</v>
+      </c>
+      <c r="G48">
+        <v>0.09933081373060659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08015556935751841</v>
+        <v>-0.07843249587265425</v>
       </c>
       <c r="C50">
-        <v>-0.05866679470455113</v>
+        <v>0.06771398645661417</v>
       </c>
       <c r="D50">
-        <v>-0.02132967252268368</v>
+        <v>0.0001994715804384896</v>
       </c>
       <c r="E50">
-        <v>0.0002740441887820231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.03788761498050528</v>
+      </c>
+      <c r="F50">
+        <v>-0.04936254411863933</v>
+      </c>
+      <c r="G50">
+        <v>0.09290396666650756</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.02004488936809004</v>
+        <v>-0.01235959758161341</v>
       </c>
       <c r="C51">
-        <v>-0.03899080503103132</v>
+        <v>0.0318930009901161</v>
       </c>
       <c r="D51">
-        <v>-0.005564967182777855</v>
+        <v>0.0432438034147202</v>
       </c>
       <c r="E51">
-        <v>0.01604999038620493</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01099405176517224</v>
+      </c>
+      <c r="F51">
+        <v>-0.05363663329385702</v>
+      </c>
+      <c r="G51">
+        <v>0.08729639627345528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1017031915319133</v>
+        <v>-0.08707119859781701</v>
       </c>
       <c r="C53">
-        <v>-0.0700152852760344</v>
+        <v>0.08562879773409454</v>
       </c>
       <c r="D53">
-        <v>-0.0351785729028449</v>
+        <v>-0.02806148324500314</v>
       </c>
       <c r="E53">
-        <v>-0.01342657988223406</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04262931807004473</v>
+      </c>
+      <c r="F53">
+        <v>-0.03450003118207765</v>
+      </c>
+      <c r="G53">
+        <v>0.09356172671169039</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02821688838255775</v>
+        <v>-0.03193047792961132</v>
       </c>
       <c r="C54">
-        <v>-0.0002982964145355982</v>
+        <v>0.01730352838378615</v>
       </c>
       <c r="D54">
-        <v>0.00285312810001128</v>
+        <v>0.02952905957363079</v>
       </c>
       <c r="E54">
-        <v>0.003938673149390564</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.009936963684449405</v>
+      </c>
+      <c r="F54">
+        <v>-0.04820536869263108</v>
+      </c>
+      <c r="G54">
+        <v>0.1023366256991284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07794121834900189</v>
+        <v>-0.08171605861120819</v>
       </c>
       <c r="C55">
-        <v>-0.0613637931140165</v>
+        <v>0.06880428810793707</v>
       </c>
       <c r="D55">
-        <v>-0.03064717358502837</v>
+        <v>-0.03250921976738749</v>
       </c>
       <c r="E55">
-        <v>-0.004945810955760823</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.04422754760579495</v>
+      </c>
+      <c r="F55">
+        <v>-0.03307325202694932</v>
+      </c>
+      <c r="G55">
+        <v>0.06436928859729767</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.156003093548696</v>
+        <v>-0.1440138950011399</v>
       </c>
       <c r="C56">
-        <v>-0.08879342581885934</v>
+        <v>0.1039157441687349</v>
       </c>
       <c r="D56">
-        <v>-0.0296262144907974</v>
+        <v>-0.04134652754666156</v>
       </c>
       <c r="E56">
-        <v>-0.03465522602364272</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.05414460670873974</v>
+      </c>
+      <c r="F56">
+        <v>-0.003677873757838789</v>
+      </c>
+      <c r="G56">
+        <v>0.06783041506570994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.005468631857961278</v>
+        <v>-0.002298312788940771</v>
       </c>
       <c r="C57">
-        <v>-0.008261629713399443</v>
+        <v>0.00437968101366122</v>
       </c>
       <c r="D57">
-        <v>0.02994969330926379</v>
+        <v>0.02660288045795386</v>
       </c>
       <c r="E57">
-        <v>0.01547470283876134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.0007786774929221512</v>
+      </c>
+      <c r="F57">
+        <v>-0.006590896975625904</v>
+      </c>
+      <c r="G57">
+        <v>0.007633562154853613</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05194765038140212</v>
+        <v>-0.03625404760073104</v>
       </c>
       <c r="C58">
-        <v>-0.05436713177190795</v>
+        <v>0.0312226129449222</v>
       </c>
       <c r="D58">
-        <v>0.9452725045912398</v>
+        <v>0.700481599954943</v>
       </c>
       <c r="E58">
-        <v>0.1566195321717276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.6133647879991414</v>
+      </c>
+      <c r="F58">
+        <v>0.1393084476574823</v>
+      </c>
+      <c r="G58">
+        <v>-0.2586958424123147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1394372901022735</v>
+        <v>-0.1468863075943686</v>
       </c>
       <c r="C59">
-        <v>0.2255489657989521</v>
+        <v>-0.2054441169197667</v>
       </c>
       <c r="D59">
-        <v>0.00885655357106355</v>
+        <v>0.02249438059819513</v>
       </c>
       <c r="E59">
-        <v>0.006998360678481191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01087920003179234</v>
+      </c>
+      <c r="F59">
+        <v>-0.01480488929444448</v>
+      </c>
+      <c r="G59">
+        <v>0.03586311119815431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3123246833573551</v>
+        <v>-0.2870393925624882</v>
       </c>
       <c r="C60">
-        <v>-0.07727043831258334</v>
+        <v>0.09105121553685816</v>
       </c>
       <c r="D60">
-        <v>0.04043618138898426</v>
+        <v>0.1379353697917549</v>
       </c>
       <c r="E60">
-        <v>0.02610293592916375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2895597594350704</v>
+      </c>
+      <c r="F60">
+        <v>0.1037903957538479</v>
+      </c>
+      <c r="G60">
+        <v>-0.1276891238882319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03273932367696962</v>
+        <v>-0.03918519336055563</v>
       </c>
       <c r="C61">
-        <v>-0.06252294381627341</v>
+        <v>0.0624971265114159</v>
       </c>
       <c r="D61">
-        <v>0.003291124932884176</v>
+        <v>0.04085298996413215</v>
       </c>
       <c r="E61">
-        <v>0.001498346904826998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.008602893934471062</v>
+      </c>
+      <c r="F61">
+        <v>-0.03265227679260857</v>
+      </c>
+      <c r="G61">
+        <v>0.08310284926123428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01423282907785543</v>
+        <v>-0.01530299576975778</v>
       </c>
       <c r="C63">
-        <v>-0.02688915408187992</v>
+        <v>0.02712103956569098</v>
       </c>
       <c r="D63">
-        <v>-0.02253153272775483</v>
+        <v>0.01647575358428558</v>
       </c>
       <c r="E63">
-        <v>0.01039907115375837</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.009068731767853937</v>
+      </c>
+      <c r="F63">
+        <v>-0.04885634428822075</v>
+      </c>
+      <c r="G63">
+        <v>0.0799199425812661</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04727963765109721</v>
+        <v>-0.0526216345083377</v>
       </c>
       <c r="C64">
-        <v>-0.02825828028148928</v>
+        <v>0.04660941821204639</v>
       </c>
       <c r="D64">
-        <v>-0.02038730253074863</v>
+        <v>0.01004419520309591</v>
       </c>
       <c r="E64">
-        <v>0.01331256827201678</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006189346053891083</v>
+      </c>
+      <c r="F64">
+        <v>-0.04891725944308785</v>
+      </c>
+      <c r="G64">
+        <v>0.07921289620204668</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08606044095767224</v>
+        <v>-0.07182890333923575</v>
       </c>
       <c r="C65">
-        <v>-0.0611600821090329</v>
+        <v>0.0440871175593949</v>
       </c>
       <c r="D65">
-        <v>0.004649984209279871</v>
+        <v>0.06792324533605351</v>
       </c>
       <c r="E65">
-        <v>0.01716772064269685</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.005968306212918912</v>
+      </c>
+      <c r="F65">
+        <v>-0.02451105575822304</v>
+      </c>
+      <c r="G65">
+        <v>0.03457455581426962</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06119594265851586</v>
+        <v>-0.04993934047757545</v>
       </c>
       <c r="C66">
-        <v>-0.1203853094278148</v>
+        <v>0.09900828500560728</v>
       </c>
       <c r="D66">
-        <v>0.01073379560404416</v>
+        <v>0.07013597642953523</v>
       </c>
       <c r="E66">
-        <v>0.01332177926017081</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02166224232300535</v>
+      </c>
+      <c r="F66">
+        <v>-0.03785767144103717</v>
+      </c>
+      <c r="G66">
+        <v>0.08398340870879413</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06319840985609684</v>
+        <v>-0.05385949099067692</v>
       </c>
       <c r="C67">
-        <v>-0.02128748881244814</v>
+        <v>0.02840578447435362</v>
       </c>
       <c r="D67">
-        <v>-0.01617885525073642</v>
+        <v>0.007610108794096408</v>
       </c>
       <c r="E67">
-        <v>0.003171910874224424</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.007177939083047193</v>
+      </c>
+      <c r="F67">
+        <v>-0.03257190042950554</v>
+      </c>
+      <c r="G67">
+        <v>0.07212024469109063</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1074963865567145</v>
+        <v>-0.1487979417546837</v>
       </c>
       <c r="C68">
-        <v>0.2887929156260184</v>
+        <v>-0.269372596115151</v>
       </c>
       <c r="D68">
-        <v>0.01149945981032639</v>
+        <v>-0.005656922878128504</v>
       </c>
       <c r="E68">
-        <v>0.03108666538283748</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.03958911760546977</v>
+      </c>
+      <c r="F68">
+        <v>-0.0394839494353539</v>
+      </c>
+      <c r="G68">
+        <v>0.0103227385039545</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0843106408702546</v>
+        <v>-0.08474925953090662</v>
       </c>
       <c r="C69">
-        <v>-0.05802176807648382</v>
+        <v>0.07501961605399479</v>
       </c>
       <c r="D69">
-        <v>-0.03313038272620718</v>
+        <v>-0.01055818950218802</v>
       </c>
       <c r="E69">
-        <v>-0.003022684476435924</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01307037278372541</v>
+      </c>
+      <c r="F69">
+        <v>-0.04466179999066788</v>
+      </c>
+      <c r="G69">
+        <v>0.09094156018336945</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,231 +2304,315 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.116339681573096</v>
+        <v>-0.1371460109558684</v>
       </c>
       <c r="C71">
-        <v>0.2399867612206383</v>
+        <v>-0.2383601557980352</v>
       </c>
       <c r="D71">
-        <v>0.01578110854450907</v>
+        <v>0.02294345129266889</v>
       </c>
       <c r="E71">
-        <v>0.02603189634941746</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03673983084384337</v>
+      </c>
+      <c r="F71">
+        <v>-0.04212471233744475</v>
+      </c>
+      <c r="G71">
+        <v>0.05618319601238768</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07584570468069786</v>
+        <v>-0.0874681230288929</v>
       </c>
       <c r="C72">
-        <v>-0.05778625715323231</v>
+        <v>0.05761882503271857</v>
       </c>
       <c r="D72">
-        <v>-0.05431619186572366</v>
+        <v>0.007725172400729793</v>
       </c>
       <c r="E72">
-        <v>-0.0006358259199856274</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.02781580890139919</v>
+      </c>
+      <c r="F72">
+        <v>-0.03654002923859838</v>
+      </c>
+      <c r="G72">
+        <v>0.07180876609706936</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4471130698409093</v>
+        <v>-0.3739769486009481</v>
       </c>
       <c r="C73">
-        <v>-0.08066883965799314</v>
+        <v>0.07914710199912679</v>
       </c>
       <c r="D73">
-        <v>0.05945835238875183</v>
+        <v>0.2940137996496213</v>
       </c>
       <c r="E73">
-        <v>0.07850404934939383</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.5113397142414182</v>
+      </c>
+      <c r="F73">
+        <v>0.1851948767849354</v>
+      </c>
+      <c r="G73">
+        <v>-0.2859684995154098</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1210392274250088</v>
+        <v>-0.1098377699658662</v>
       </c>
       <c r="C74">
-        <v>-0.1126415971673869</v>
+        <v>0.1022004882637178</v>
       </c>
       <c r="D74">
-        <v>-0.02514857453738708</v>
+        <v>-0.01349032767502444</v>
       </c>
       <c r="E74">
-        <v>-0.01431889646820889</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.05721167204609186</v>
+      </c>
+      <c r="F74">
+        <v>-0.02690827825419297</v>
+      </c>
+      <c r="G74">
+        <v>0.0753469364293439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2704129021469216</v>
+        <v>-0.255608686881713</v>
       </c>
       <c r="C75">
-        <v>-0.1224928737125422</v>
+        <v>0.1420273463174971</v>
       </c>
       <c r="D75">
-        <v>-0.04433796673719286</v>
+        <v>-0.1073709740630147</v>
       </c>
       <c r="E75">
-        <v>-0.06482267906869373</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1249253337245192</v>
+      </c>
+      <c r="F75">
+        <v>0.0227925693025503</v>
+      </c>
+      <c r="G75">
+        <v>0.05276074472051447</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1232189162151055</v>
+        <v>-0.1238461098174572</v>
       </c>
       <c r="C76">
-        <v>-0.1013167242196726</v>
+        <v>0.1037129511963237</v>
       </c>
       <c r="D76">
-        <v>-0.03631627593707393</v>
+        <v>-0.04470389292729252</v>
       </c>
       <c r="E76">
-        <v>-0.03509003591235027</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.07823361499485922</v>
+      </c>
+      <c r="F76">
+        <v>-0.01155950270763241</v>
+      </c>
+      <c r="G76">
+        <v>0.07961435870131221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07189259909590699</v>
+        <v>-0.06522753286867322</v>
       </c>
       <c r="C77">
-        <v>-0.05546088639191126</v>
+        <v>0.06360963581850679</v>
       </c>
       <c r="D77">
-        <v>0.02212276588329426</v>
+        <v>0.05931775437023426</v>
       </c>
       <c r="E77">
-        <v>0.01885585976271939</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.03171810364860854</v>
+      </c>
+      <c r="F77">
+        <v>-0.04520837206272374</v>
+      </c>
+      <c r="G77">
+        <v>0.0894987211282251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04704707987726021</v>
+        <v>-0.04174627807052258</v>
       </c>
       <c r="C78">
-        <v>-0.05007240326538007</v>
+        <v>0.05434488177749624</v>
       </c>
       <c r="D78">
-        <v>0.01007419061039998</v>
+        <v>0.05773699153852117</v>
       </c>
       <c r="E78">
-        <v>0.0001051065485490012</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02345203853861237</v>
+      </c>
+      <c r="F78">
+        <v>-0.02529972627647268</v>
+      </c>
+      <c r="G78">
+        <v>0.09481626482760067</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0003314768405833154</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0001555274823230716</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>0.007585737827958026</v>
       </c>
       <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.002416845064171951</v>
+      </c>
+      <c r="F79">
+        <v>-0.003386070848780254</v>
+      </c>
+      <c r="G79">
+        <v>0.008333473214926009</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05590239206766391</v>
+        <v>-0.04059483012909003</v>
       </c>
       <c r="C80">
-        <v>-0.05997420300372704</v>
+        <v>0.04732314926977719</v>
       </c>
       <c r="D80">
-        <v>0.01902000990588107</v>
+        <v>0.04251288147520985</v>
       </c>
       <c r="E80">
-        <v>0.02790320913114901</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.001921429771099868</v>
+      </c>
+      <c r="F80">
+        <v>-0.0360452185423032</v>
+      </c>
+      <c r="G80">
+        <v>0.02129095628923201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1407443940495312</v>
+        <v>-0.1417670058780531</v>
       </c>
       <c r="C81">
-        <v>-0.07475705741564181</v>
+        <v>0.09076205280846418</v>
       </c>
       <c r="D81">
-        <v>-0.03372165432298194</v>
+        <v>-0.07414418794484895</v>
       </c>
       <c r="E81">
-        <v>-0.03130393210406063</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.1032604797668511</v>
+      </c>
+      <c r="F81">
+        <v>-0.01117547374142722</v>
+      </c>
+      <c r="G81">
+        <v>0.04734956770693149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.0559375306467873</v>
+        <v>-0.175082591764943</v>
       </c>
       <c r="C82">
-        <v>-0.03904342923410147</v>
+        <v>0.1243750710052265</v>
       </c>
       <c r="D82">
-        <v>-0.02406761413664679</v>
+        <v>-0.1890699503432683</v>
       </c>
       <c r="E82">
-        <v>-0.006734029199503192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05169394638857263</v>
+      </c>
+      <c r="F82">
+        <v>-0.03780236654588811</v>
+      </c>
+      <c r="G82">
+        <v>0.0176148444440225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02947820747828158</v>
+        <v>-0.02802264050219907</v>
       </c>
       <c r="C83">
-        <v>-0.01863721847678364</v>
+        <v>0.03216208540434751</v>
       </c>
       <c r="D83">
-        <v>0.01489320423703056</v>
+        <v>0.03413578309202937</v>
       </c>
       <c r="E83">
-        <v>0.0164183708293404</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.01036635813164865</v>
+      </c>
+      <c r="F83">
+        <v>-0.02786555705772924</v>
+      </c>
+      <c r="G83">
+        <v>0.04510174833340035</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.248043733321958</v>
+        <v>-0.2140976218630528</v>
       </c>
       <c r="C85">
-        <v>-0.1223758891324887</v>
+        <v>0.1242143571614725</v>
       </c>
       <c r="D85">
-        <v>-0.1016830760542673</v>
+        <v>-0.1106225718566567</v>
       </c>
       <c r="E85">
-        <v>-0.07583602663474483</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.05511872474024664</v>
+      </c>
+      <c r="F85">
+        <v>0.04058272690477013</v>
+      </c>
+      <c r="G85">
+        <v>0.02172685041149673</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01126343074827586</v>
+        <v>-0.01198758581807288</v>
       </c>
       <c r="C86">
-        <v>-0.01981176874185905</v>
+        <v>0.02438918196912649</v>
       </c>
       <c r="D86">
-        <v>-0.005238157399686011</v>
+        <v>0.08158638741432728</v>
       </c>
       <c r="E86">
-        <v>0.0600922542452682</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01884744191524838</v>
+      </c>
+      <c r="F86">
+        <v>-0.107656669792703</v>
+      </c>
+      <c r="G86">
+        <v>0.1244598090902428</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0141705973703144</v>
+        <v>-0.0202438370644304</v>
       </c>
       <c r="C87">
-        <v>-0.02174324017581712</v>
+        <v>0.01546962666030571</v>
       </c>
       <c r="D87">
-        <v>0.07432946092394842</v>
+        <v>0.1003301064458495</v>
       </c>
       <c r="E87">
-        <v>0.0357677858144773</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.03424304910792966</v>
+      </c>
+      <c r="F87">
+        <v>-0.05141086814331078</v>
+      </c>
+      <c r="G87">
+        <v>0.09249919075963957</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09834702442489765</v>
+        <v>-0.09006050647278099</v>
       </c>
       <c r="C88">
-        <v>-0.06023817336371989</v>
+        <v>0.06013614274896935</v>
       </c>
       <c r="D88">
-        <v>-0.02057002362011363</v>
+        <v>0.01387867723439667</v>
       </c>
       <c r="E88">
-        <v>0.04891811942792893</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.008724672159593591</v>
+      </c>
+      <c r="F88">
+        <v>-0.09042008831078933</v>
+      </c>
+      <c r="G88">
+        <v>0.05997570326892285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1875171797696385</v>
+        <v>-0.2084539210945303</v>
       </c>
       <c r="C89">
-        <v>0.3803602938250665</v>
+        <v>-0.3699627874035525</v>
       </c>
       <c r="D89">
-        <v>-0.03347018683073211</v>
+        <v>-0.01994200640865701</v>
       </c>
       <c r="E89">
-        <v>0.01626833111086595</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.005256155699076148</v>
+      </c>
+      <c r="F89">
+        <v>-0.05229926957952031</v>
+      </c>
+      <c r="G89">
+        <v>0.06121206882048623</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1706815433749298</v>
+        <v>-0.1984188086743266</v>
       </c>
       <c r="C90">
-        <v>0.3530641859608015</v>
+        <v>-0.3245023247144872</v>
       </c>
       <c r="D90">
-        <v>0.005582164271107114</v>
+        <v>-0.01392137639274902</v>
       </c>
       <c r="E90">
-        <v>0.02779115252114104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.05356918207081261</v>
+      </c>
+      <c r="F90">
+        <v>-0.04664823320298384</v>
+      </c>
+      <c r="G90">
+        <v>0.03828294749020719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2097865229427072</v>
+        <v>-0.1916134448607067</v>
       </c>
       <c r="C91">
-        <v>-0.1085688575061676</v>
+        <v>0.1296615508202606</v>
       </c>
       <c r="D91">
-        <v>-0.05356276431607799</v>
+        <v>-0.08774823374615412</v>
       </c>
       <c r="E91">
-        <v>-0.03671247929039759</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1000458217192889</v>
+      </c>
+      <c r="F91">
+        <v>-0.009622063946776597</v>
+      </c>
+      <c r="G91">
+        <v>0.05806354904215462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1758414254251568</v>
+        <v>-0.1804184748315032</v>
       </c>
       <c r="C92">
-        <v>0.2804269187476461</v>
+        <v>-0.2774303563585006</v>
       </c>
       <c r="D92">
-        <v>0.006825972680071104</v>
+        <v>0.003940151859800476</v>
       </c>
       <c r="E92">
-        <v>-0.02570092660391068</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.07524554145613097</v>
+      </c>
+      <c r="F92">
+        <v>-0.006470124779237993</v>
+      </c>
+      <c r="G92">
+        <v>0.08878013922641524</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1817484613958747</v>
+        <v>-0.220674849923515</v>
       </c>
       <c r="C93">
-        <v>0.3307814102936141</v>
+        <v>-0.3211509973802389</v>
       </c>
       <c r="D93">
-        <v>0.009440978422881037</v>
+        <v>0.00167363300242768</v>
       </c>
       <c r="E93">
-        <v>0.02056724003200661</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.03662610519594953</v>
+      </c>
+      <c r="F93">
+        <v>-0.03546410355253405</v>
+      </c>
+      <c r="G93">
+        <v>0.04952647300473324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.278336458800589</v>
+        <v>-0.3399478555697918</v>
       </c>
       <c r="C94">
-        <v>-0.131177129461729</v>
+        <v>0.1881108314256667</v>
       </c>
       <c r="D94">
-        <v>-0.08702389782358359</v>
+        <v>-0.3996606097709043</v>
       </c>
       <c r="E94">
-        <v>-0.07765437133537727</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3552562725294747</v>
+      </c>
+      <c r="F94">
+        <v>0.05430918166855316</v>
+      </c>
+      <c r="G94">
+        <v>-0.4127447620810465</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08170681994797656</v>
+        <v>-0.08127165746014671</v>
       </c>
       <c r="C95">
-        <v>-0.08195089801957964</v>
+        <v>0.08560518439702808</v>
       </c>
       <c r="D95">
-        <v>0.07709942898259632</v>
+        <v>0.1396610282589058</v>
       </c>
       <c r="E95">
-        <v>0.04485372435167005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1560086917714491</v>
+      </c>
+      <c r="F95">
+        <v>-0.01976854457391277</v>
+      </c>
+      <c r="G95">
+        <v>-0.03801564346592125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2120331885700852</v>
+        <v>-0.1961570977073425</v>
       </c>
       <c r="C98">
-        <v>-0.03278995891082198</v>
+        <v>0.04153239512036429</v>
       </c>
       <c r="D98">
-        <v>0.05139639686713417</v>
+        <v>0.1311339138183338</v>
       </c>
       <c r="E98">
-        <v>-0.004586133192730047</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1837410861481604</v>
+      </c>
+      <c r="F98">
+        <v>0.08888457156737167</v>
+      </c>
+      <c r="G98">
+        <v>-0.02252452027249424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +2994,62 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01127939571328826</v>
+        <v>-0.007691382411746642</v>
       </c>
       <c r="C101">
-        <v>-0.02041626580661229</v>
+        <v>0.0229573368187033</v>
       </c>
       <c r="D101">
-        <v>-0.01321641803247527</v>
+        <v>0.01604625112917093</v>
       </c>
       <c r="E101">
-        <v>0.005717341609650441</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.007596646785094271</v>
+      </c>
+      <c r="F101">
+        <v>-0.05098642719685137</v>
+      </c>
+      <c r="G101">
+        <v>0.09095670630984715</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1259880451596369</v>
+        <v>-0.1233844533095879</v>
       </c>
       <c r="C102">
-        <v>-0.07142030254183264</v>
+        <v>0.09648632169315005</v>
       </c>
       <c r="D102">
-        <v>-0.03556100621608058</v>
+        <v>-0.05201954612442805</v>
       </c>
       <c r="E102">
-        <v>-0.01912202832960039</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.01587508409174572</v>
+      </c>
+      <c r="F102">
+        <v>0.004046736825925549</v>
+      </c>
+      <c r="G102">
+        <v>0.02894274963949413</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,22 +3063,34 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.01187398265001875</v>
+        <v>0.003903975341377861</v>
       </c>
       <c r="C104">
-        <v>-0.02369370578822173</v>
+        <v>0.008327733718541392</v>
       </c>
       <c r="D104">
-        <v>-0.1961497303506969</v>
+        <v>0.05372279643715661</v>
       </c>
       <c r="E104">
-        <v>0.9473708721647476</v>
+        <v>-0.07565988364239824</v>
+      </c>
+      <c r="F104">
+        <v>-0.8588386674222227</v>
+      </c>
+      <c r="G104">
+        <v>-0.4341192202788151</v>
       </c>
     </row>
   </sheetData>
